--- a/clinical_codes.xlsx
+++ b/clinical_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/bt211038_qmul_ac_uk/Documents/Documents/MRes dissertation/Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\Uni London\MRes_HDiP\MRes_project\mres_dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{E8F9D406-7A6C-4DD8-87EC-F35F956CCDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC409D5-92B7-47CF-A7F9-ACE4A431AADB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864F7A8-314C-4A75-BD1C-F4A8805D2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{57C85A42-9D1C-47B0-8146-72D8D20C1A9A}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7350" xr2:uid="{57C85A42-9D1C-47B0-8146-72D8D20C1A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Radiological procedure and radiotherapy</t>
   </si>
   <si>
-    <t>Code_Type</t>
-  </si>
-  <si>
     <t>ICD-9</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clinical_code</t>
-  </si>
-  <si>
     <t>Malignant neoplasm of female breast</t>
   </si>
   <si>
@@ -582,6 +576,12 @@
   </si>
   <si>
     <t>Y902</t>
+  </si>
+  <si>
+    <t>clinical_code</t>
+  </si>
+  <si>
+    <t>code_type</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,7 +670,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +691,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8EB3C-5444-452D-AB08-E08373EF3FD3}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,13 +1007,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1041,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1053,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1065,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1077,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1089,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1101,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1113,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1125,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1137,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1152,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1161,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1173,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1185,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1197,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1209,12 +1204,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1223,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18"/>
     </row>
@@ -1235,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1247,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1259,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21"/>
     </row>
@@ -1271,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1282,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1294,847 +1289,847 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3">
         <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>1740</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
         <v>1743</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
         <v>1744</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
         <v>1745</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
         <v>1748</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
         <v>1749</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2">
         <v>2383</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2">
         <v>2393</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
         <v>2330</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53"/>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D62"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D70"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D73"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D74"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D75"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D77"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D78"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D79"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D82"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D83"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D84"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D85"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D86"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D87"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D88"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D89"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D90"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D91"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D93"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D94"/>
     </row>

--- a/clinical_codes.xlsx
+++ b/clinical_codes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\Uni London\MRes_HDiP\MRes_project\mres_dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864F7A8-314C-4A75-BD1C-F4A8805D2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F7958-0D96-40DC-A856-F5AD4BFBD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7350" xr2:uid="{57C85A42-9D1C-47B0-8146-72D8D20C1A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C85A42-9D1C-47B0-8146-72D8D20C1A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -990,22 +993,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8EB3C-5444-452D-AB08-E08373EF3FD3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
-    <col min="4" max="4" width="69.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1035,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1047,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1059,7 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1071,7 @@
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1083,7 @@
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1095,7 @@
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1107,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1119,7 @@
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1143,7 @@
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1155,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1167,7 @@
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1179,7 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1191,7 @@
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1203,7 @@
       </c>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1229,7 @@
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1241,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1249,7 +1253,7 @@
       </c>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1265,7 @@
       </c>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1288,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1300,7 @@
       </c>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1323,7 @@
       </c>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1335,7 @@
       </c>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1370,7 @@
       </c>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1382,7 @@
       </c>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1394,7 @@
       </c>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1406,7 @@
       </c>
       <c r="D33"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1418,7 @@
       </c>
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1442,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1466,7 @@
       </c>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +1489,7 @@
       </c>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1501,7 @@
       </c>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1513,7 @@
       </c>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1525,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1549,7 @@
       </c>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1561,7 @@
       </c>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1573,7 @@
       </c>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1585,7 @@
       </c>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1597,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +1609,7 @@
       </c>
       <c r="D50"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1621,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1633,7 @@
       </c>
       <c r="D52"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -1641,7 +1645,7 @@
       </c>
       <c r="D53"/>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1657,7 @@
       </c>
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1669,7 @@
       </c>
       <c r="D55"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="D56"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +1693,7 @@
       </c>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1705,7 @@
       </c>
       <c r="D58"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1717,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>30</v>
       </c>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="D60"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1741,7 @@
       </c>
       <c r="D61"/>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -1749,7 +1753,7 @@
       </c>
       <c r="D62"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="D63"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="D64"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1789,7 @@
       </c>
       <c r="D65"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -1797,7 +1801,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1813,7 @@
       </c>
       <c r="D67"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -1821,7 +1825,7 @@
       </c>
       <c r="D68"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1837,7 @@
       </c>
       <c r="D69"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1849,7 @@
       </c>
       <c r="D70"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1861,7 @@
       </c>
       <c r="D71"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -1869,7 +1873,7 @@
       </c>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1885,7 @@
       </c>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1897,7 @@
       </c>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>30</v>
       </c>
@@ -1905,7 +1909,7 @@
       </c>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1921,7 @@
       </c>
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>30</v>
       </c>
@@ -1929,7 +1933,7 @@
       </c>
       <c r="D77"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>30</v>
       </c>
@@ -1941,7 +1945,7 @@
       </c>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +1957,7 @@
       </c>
       <c r="D79"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +1969,7 @@
       </c>
       <c r="D80"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1981,7 @@
       </c>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1993,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -2001,7 +2005,7 @@
       </c>
       <c r="D83"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2017,7 @@
       </c>
       <c r="D84"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2029,7 @@
       </c>
       <c r="D85"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>30</v>
       </c>
@@ -2037,7 +2041,7 @@
       </c>
       <c r="D86"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2053,7 @@
       </c>
       <c r="D87"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
@@ -2061,7 +2065,7 @@
       </c>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="D89"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -2085,7 +2089,7 @@
       </c>
       <c r="D90"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2101,7 @@
       </c>
       <c r="D91"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2113,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>30</v>
       </c>
@@ -2121,7 +2125,7 @@
       </c>
       <c r="D93"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>30</v>
       </c>
@@ -2134,6 +2138,13 @@
       <c r="D94"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D94" xr:uid="{1BA8EB3C-5444-452D-AB08-E08373EF3FD3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="OPCS-4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
